--- a/res/maps/map2.xlsx
+++ b/res/maps/map2.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mctv9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mctv9\Documents\GitHub\Hopital\res\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B560E206-8CD9-404A-B6EF-4CC2ECA27987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD460F69-469B-4A7D-94F9-F343FE4AEB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -574,7 +587,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -659,278 +672,17 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFCC00CC"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1238,11 +990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="16" zoomScaleNormal="18" workbookViewId="0">
-      <selection activeCell="AW46" sqref="AW46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="21" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AG46" sqref="AG46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -8044,7 +7796,7 @@
         <v>5</v>
       </c>
       <c r="AB23">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AC23">
         <v>5</v>
@@ -8349,7 +8101,7 @@
         <v>5</v>
       </c>
       <c r="AB24">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AC24">
         <v>5</v>
@@ -9602,7 +9354,7 @@
         <v>5</v>
       </c>
       <c r="AM28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN28">
         <v>5</v>
@@ -9907,7 +9659,7 @@
         <v>5</v>
       </c>
       <c r="AM29">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AN29">
         <v>5</v>
@@ -10212,7 +9964,7 @@
         <v>5</v>
       </c>
       <c r="AM30">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AN30">
         <v>5</v>
@@ -10517,7 +10269,7 @@
         <v>5</v>
       </c>
       <c r="AM31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN31">
         <v>5</v>
@@ -10843,22 +10595,22 @@
         <v>5</v>
       </c>
       <c r="AT32">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AU32">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AV32">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AW32">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AX32">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AY32">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AZ32">
         <v>5</v>
@@ -10870,7 +10622,7 @@
         <v>5</v>
       </c>
       <c r="BC32">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="BD32">
         <v>4</v>
@@ -11175,7 +10927,7 @@
         <v>5</v>
       </c>
       <c r="BC33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD33">
         <v>4</v>
@@ -11480,7 +11232,7 @@
         <v>5</v>
       </c>
       <c r="BC34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD34">
         <v>4</v>
@@ -11785,7 +11537,7 @@
         <v>5</v>
       </c>
       <c r="BC35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD35">
         <v>4</v>
@@ -12015,7 +11767,7 @@
         <v>4</v>
       </c>
       <c r="AD36">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE36">
         <v>5</v>
@@ -12063,7 +11815,7 @@
         <v>4</v>
       </c>
       <c r="AT36">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -12090,7 +11842,7 @@
         <v>5</v>
       </c>
       <c r="BC36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD36">
         <v>4</v>
@@ -12320,7 +12072,7 @@
         <v>4</v>
       </c>
       <c r="AD37">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE37">
         <v>5</v>
@@ -12395,7 +12147,7 @@
         <v>5</v>
       </c>
       <c r="BC37">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BD37">
         <v>4</v>
@@ -12625,7 +12377,7 @@
         <v>4</v>
       </c>
       <c r="AD38">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE38">
         <v>5</v>
@@ -12700,7 +12452,7 @@
         <v>5</v>
       </c>
       <c r="BC38">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BD38">
         <v>4</v>
@@ -12930,7 +12682,7 @@
         <v>4</v>
       </c>
       <c r="AD39">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE39">
         <v>5</v>
@@ -13005,7 +12757,7 @@
         <v>5</v>
       </c>
       <c r="BC39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD39">
         <v>4</v>
@@ -13235,7 +12987,7 @@
         <v>4</v>
       </c>
       <c r="AD40">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE40">
         <v>5</v>
@@ -13310,7 +13062,7 @@
         <v>5</v>
       </c>
       <c r="BC40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD40">
         <v>4</v>
@@ -13540,7 +13292,7 @@
         <v>4</v>
       </c>
       <c r="AD41">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE41">
         <v>5</v>
@@ -13564,7 +13316,7 @@
         <v>4</v>
       </c>
       <c r="AL41">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AM41">
         <v>4</v>
@@ -13615,7 +13367,7 @@
         <v>5</v>
       </c>
       <c r="BC41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="BD41">
         <v>4</v>
@@ -13845,7 +13597,7 @@
         <v>4</v>
       </c>
       <c r="AD42">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE42">
         <v>5</v>
@@ -13857,22 +13609,22 @@
         <v>5</v>
       </c>
       <c r="AH42">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AI42">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AJ42">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AK42">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AL42">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AM42">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AN42">
         <v>5</v>
@@ -13920,7 +13672,7 @@
         <v>5</v>
       </c>
       <c r="BC42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="BD42">
         <v>4</v>
@@ -14165,7 +13917,7 @@
         <v>5</v>
       </c>
       <c r="AI43">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AJ43">
         <v>5</v>
@@ -14177,7 +13929,7 @@
         <v>5</v>
       </c>
       <c r="AM43">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AN43">
         <v>5</v>
@@ -14437,19 +14189,19 @@
         <v>5</v>
       </c>
       <c r="X44">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Y44">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z44">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AA44">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AB44">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AC44">
         <v>5</v>
@@ -14470,7 +14222,7 @@
         <v>5</v>
       </c>
       <c r="AI44">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AJ44">
         <v>5</v>
@@ -14482,7 +14234,7 @@
         <v>5</v>
       </c>
       <c r="AM44">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AN44">
         <v>5</v>
@@ -14775,7 +14527,7 @@
         <v>5</v>
       </c>
       <c r="AI45">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AJ45">
         <v>5</v>
@@ -14787,7 +14539,7 @@
         <v>5</v>
       </c>
       <c r="AM45">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AN45">
         <v>5</v>
@@ -15077,13 +14829,13 @@
         <v>5</v>
       </c>
       <c r="AH46">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AI46">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AJ46">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AK46">
         <v>5</v>
@@ -15092,7 +14844,7 @@
         <v>5</v>
       </c>
       <c r="AM46">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AN46">
         <v>5</v>
@@ -15170,7 +14922,7 @@
         <v>5</v>
       </c>
       <c r="BM46">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="BN46">
         <v>5</v>
@@ -15185,7 +14937,7 @@
         <v>5</v>
       </c>
       <c r="BR46">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="BS46">
         <v>5</v>
@@ -15385,7 +15137,7 @@
         <v>5</v>
       </c>
       <c r="AI47">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AJ47">
         <v>5</v>
@@ -15397,7 +15149,7 @@
         <v>5</v>
       </c>
       <c r="AM47">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AN47">
         <v>5</v>
@@ -15475,7 +15227,7 @@
         <v>5</v>
       </c>
       <c r="BM47">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="BN47">
         <v>5</v>
@@ -15490,7 +15242,7 @@
         <v>5</v>
       </c>
       <c r="BR47">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="BS47">
         <v>5</v>
@@ -15690,7 +15442,7 @@
         <v>5</v>
       </c>
       <c r="AI48">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AJ48">
         <v>5</v>
@@ -15702,7 +15454,7 @@
         <v>5</v>
       </c>
       <c r="AM48">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AN48">
         <v>5</v>
@@ -15995,7 +15747,7 @@
         <v>5</v>
       </c>
       <c r="AI49">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AJ49">
         <v>5</v>
@@ -16007,7 +15759,7 @@
         <v>5</v>
       </c>
       <c r="AM49">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AN49">
         <v>5</v>
@@ -16297,22 +16049,22 @@
         <v>5</v>
       </c>
       <c r="AH50">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AI50">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AJ50">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AK50">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AL50">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AM50">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AN50">
         <v>21</v>
@@ -16614,7 +16366,7 @@
         <v>4</v>
       </c>
       <c r="AL51">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AM51">
         <v>4</v>
@@ -16629,10 +16381,10 @@
         <v>4</v>
       </c>
       <c r="AQ51">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AR51">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AS51">
         <v>4</v>
@@ -17885,7 +17637,7 @@
         <v>4</v>
       </c>
       <c r="BC55">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="BD55">
         <v>4</v>
@@ -18800,7 +18552,7 @@
         <v>4</v>
       </c>
       <c r="BC58">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="BD58">
         <v>4</v>
@@ -19057,7 +18809,7 @@
         <v>4</v>
       </c>
       <c r="AM59">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AN59">
         <v>4</v>
@@ -19999,7 +19751,7 @@
         <v>5</v>
       </c>
       <c r="AV62">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AW62">
         <v>5</v>
@@ -20008,7 +19760,7 @@
         <v>5</v>
       </c>
       <c r="AY62">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AZ62">
         <v>5</v>
@@ -26263,41 +26015,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:CW82">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
       <formula>10</formula>
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
       <formula>19</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
       <formula>29</formula>
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/maps/map2.xlsx
+++ b/res/maps/map2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mctv9\Documents\GitHub\Hopital\res\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD460F69-469B-4A7D-94F9-F343FE4AEB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E1131-46AB-4527-AA23-BA2829E8D8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW82"/>
+  <dimension ref="A1:CX83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="21" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AG46" sqref="AG46"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="59" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -1002,314 +1002,314 @@
     <col min="60" max="60" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="30" customHeight="1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:102" ht="30" customHeight="1">
       <c r="B1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
       <c r="F1" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
       <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>27</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>29</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>30</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>31</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>33</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>35</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>36</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>37</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>38</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="1">
         <v>39</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="1">
         <v>42</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="1">
         <v>43</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AT1" s="1">
         <v>44</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AU1" s="1">
         <v>45</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AV1" s="1">
         <v>46</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AW1" s="1">
         <v>47</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AX1" s="1">
         <v>48</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AY1" s="1">
         <v>49</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AZ1" s="1">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="BA1" s="1">
         <v>51</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BB1" s="1">
         <v>52</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BC1" s="1">
         <v>53</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BD1" s="1">
         <v>54</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BE1" s="1">
         <v>55</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BF1" s="1">
         <v>56</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BG1" s="1">
         <v>57</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BH1" s="1">
         <v>58</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BI1" s="1">
         <v>59</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BJ1" s="1">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BK1" s="1">
         <v>61</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BL1" s="1">
         <v>62</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BM1" s="1">
         <v>63</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BN1" s="1">
         <v>64</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BO1" s="1">
         <v>65</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BP1" s="1">
         <v>66</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BQ1" s="1">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BR1" s="1">
         <v>68</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BS1" s="1">
         <v>69</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BT1" s="1">
         <v>70</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BU1" s="1">
         <v>71</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BV1" s="1">
         <v>72</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="BW1" s="1">
         <v>73</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BX1" s="1">
         <v>74</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BY1" s="1">
         <v>75</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="BZ1" s="1">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="CA1" s="1">
         <v>77</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="CB1" s="1">
         <v>78</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="CC1" s="1">
         <v>79</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="CD1" s="1">
         <v>80</v>
       </c>
-      <c r="CD1" s="1">
+      <c r="CE1" s="1">
         <v>81</v>
       </c>
-      <c r="CE1" s="1">
+      <c r="CF1" s="1">
         <v>82</v>
       </c>
-      <c r="CF1" s="1">
+      <c r="CG1" s="1">
         <v>83</v>
       </c>
-      <c r="CG1" s="1">
+      <c r="CH1" s="1">
         <v>84</v>
       </c>
-      <c r="CH1" s="1">
+      <c r="CI1" s="1">
         <v>85</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="CJ1" s="1">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="CK1" s="1">
         <v>87</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="CL1" s="1">
         <v>88</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="CM1" s="1">
         <v>89</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="CN1" s="1">
         <v>90</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="CO1" s="1">
         <v>91</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="CP1" s="1">
         <v>92</v>
       </c>
-      <c r="CP1" s="1">
+      <c r="CQ1" s="1">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1">
+      <c r="CR1" s="1">
         <v>94</v>
       </c>
-      <c r="CR1" s="1">
+      <c r="CS1" s="1">
         <v>95</v>
       </c>
-      <c r="CS1" s="1">
+      <c r="CT1" s="1">
         <v>96</v>
       </c>
-      <c r="CT1" s="1">
+      <c r="CU1" s="1">
         <v>97</v>
       </c>
-      <c r="CU1" s="1">
+      <c r="CV1" s="1">
         <v>98</v>
       </c>
-      <c r="CV1" s="1">
+      <c r="CW1" s="1">
         <v>99</v>
       </c>
-      <c r="CW1" s="1">
+      <c r="CX1" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:101" ht="30" customHeight="1">
+    <row r="2" spans="1:102" ht="30" customHeight="1">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">B2:CW829</f>
@@ -1613,9 +1613,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:101" ht="30" customHeight="1">
+    <row r="3" spans="1:102" ht="30" customHeight="1">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -1918,2754 +1918,2754 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:101" ht="30" customHeight="1">
+    <row r="4" spans="1:102" ht="30" customHeight="1">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" ht="30" customHeight="1">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:101" ht="30" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5">
-        <v>0</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
+    <row r="6" spans="1:102" ht="30" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:101" ht="30" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6">
-        <v>0</v>
-      </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6">
-        <v>0</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
+    <row r="7" spans="1:102" ht="30" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:101" ht="30" customHeight="1">
-      <c r="A7" s="1">
+    <row r="8" spans="1:102" ht="30" customHeight="1">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7">
-        <v>0</v>
-      </c>
-      <c r="BZ7">
-        <v>0</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7">
-        <v>0</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7">
-        <v>0</v>
-      </c>
-      <c r="CE7">
-        <v>0</v>
-      </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
-      <c r="CG7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
-      </c>
-      <c r="CS7">
-        <v>0</v>
-      </c>
-      <c r="CT7">
-        <v>0</v>
-      </c>
-      <c r="CU7">
-        <v>0</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CW7">
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:101" ht="30" customHeight="1">
-      <c r="A8" s="1">
+    <row r="9" spans="1:102" ht="30" customHeight="1">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
-      <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8">
-        <v>0</v>
-      </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8">
-        <v>0</v>
-      </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8">
-        <v>0</v>
-      </c>
-      <c r="CE8">
-        <v>0</v>
-      </c>
-      <c r="CF8">
-        <v>0</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
-      </c>
-      <c r="CH8">
-        <v>0</v>
-      </c>
-      <c r="CI8">
-        <v>0</v>
-      </c>
-      <c r="CJ8">
-        <v>0</v>
-      </c>
-      <c r="CK8">
-        <v>0</v>
-      </c>
-      <c r="CL8">
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
-      </c>
-      <c r="CN8">
-        <v>0</v>
-      </c>
-      <c r="CO8">
-        <v>0</v>
-      </c>
-      <c r="CP8">
-        <v>0</v>
-      </c>
-      <c r="CQ8">
-        <v>0</v>
-      </c>
-      <c r="CR8">
-        <v>0</v>
-      </c>
-      <c r="CS8">
-        <v>0</v>
-      </c>
-      <c r="CT8">
-        <v>0</v>
-      </c>
-      <c r="CU8">
-        <v>0</v>
-      </c>
-      <c r="CV8">
-        <v>0</v>
-      </c>
-      <c r="CW8">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:101" ht="30" customHeight="1">
-      <c r="A9" s="1">
+    <row r="10" spans="1:102" ht="30" customHeight="1">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
-        <v>0</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
-      </c>
-      <c r="BW9">
-        <v>0</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
-        <v>0</v>
-      </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
-      <c r="CA9">
-        <v>0</v>
-      </c>
-      <c r="CB9">
-        <v>0</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9">
-        <v>0</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
-      </c>
-      <c r="CG9">
-        <v>0</v>
-      </c>
-      <c r="CH9">
-        <v>0</v>
-      </c>
-      <c r="CI9">
-        <v>0</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
-      </c>
-      <c r="CK9">
-        <v>0</v>
-      </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
-      </c>
-      <c r="CO9">
-        <v>0</v>
-      </c>
-      <c r="CP9">
-        <v>0</v>
-      </c>
-      <c r="CQ9">
-        <v>0</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
-      </c>
-      <c r="CS9">
-        <v>0</v>
-      </c>
-      <c r="CT9">
-        <v>0</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
-      </c>
-      <c r="CW9">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
+      </c>
+      <c r="AJ10">
+        <v>2</v>
+      </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>2</v>
+      </c>
+      <c r="AP10">
+        <v>2</v>
+      </c>
+      <c r="AQ10">
+        <v>2</v>
+      </c>
+      <c r="AR10">
+        <v>2</v>
+      </c>
+      <c r="AS10">
+        <v>2</v>
+      </c>
+      <c r="AT10">
+        <v>2</v>
+      </c>
+      <c r="AU10">
+        <v>2</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <v>2</v>
+      </c>
+      <c r="AY10">
+        <v>2</v>
+      </c>
+      <c r="AZ10">
+        <v>2</v>
+      </c>
+      <c r="BA10">
+        <v>2</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>2</v>
+      </c>
+      <c r="BD10">
+        <v>2</v>
+      </c>
+      <c r="BE10">
+        <v>2</v>
+      </c>
+      <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10">
+        <v>2</v>
+      </c>
+      <c r="BH10">
+        <v>2</v>
+      </c>
+      <c r="BI10">
+        <v>2</v>
+      </c>
+      <c r="BJ10">
+        <v>2</v>
+      </c>
+      <c r="BK10">
+        <v>2</v>
+      </c>
+      <c r="BL10">
+        <v>2</v>
+      </c>
+      <c r="BM10">
+        <v>2</v>
+      </c>
+      <c r="BN10">
+        <v>2</v>
+      </c>
+      <c r="BO10">
+        <v>2</v>
+      </c>
+      <c r="BP10">
+        <v>2</v>
+      </c>
+      <c r="BQ10">
+        <v>2</v>
+      </c>
+      <c r="BR10">
+        <v>2</v>
+      </c>
+      <c r="BS10">
+        <v>2</v>
+      </c>
+      <c r="BT10">
+        <v>2</v>
+      </c>
+      <c r="BU10">
+        <v>2</v>
+      </c>
+      <c r="BV10">
+        <v>2</v>
+      </c>
+      <c r="BW10">
+        <v>2</v>
+      </c>
+      <c r="BX10">
+        <v>2</v>
+      </c>
+      <c r="BY10">
+        <v>2</v>
+      </c>
+      <c r="BZ10">
+        <v>2</v>
+      </c>
+      <c r="CA10">
+        <v>2</v>
+      </c>
+      <c r="CB10">
+        <v>2</v>
+      </c>
+      <c r="CC10">
+        <v>2</v>
+      </c>
+      <c r="CD10">
+        <v>2</v>
+      </c>
+      <c r="CE10">
+        <v>2</v>
+      </c>
+      <c r="CF10">
+        <v>2</v>
+      </c>
+      <c r="CG10">
+        <v>2</v>
+      </c>
+      <c r="CH10">
+        <v>2</v>
+      </c>
+      <c r="CI10">
+        <v>2</v>
+      </c>
+      <c r="CJ10">
+        <v>2</v>
+      </c>
+      <c r="CK10">
+        <v>2</v>
+      </c>
+      <c r="CL10">
+        <v>2</v>
+      </c>
+      <c r="CM10">
+        <v>2</v>
+      </c>
+      <c r="CN10">
+        <v>2</v>
+      </c>
+      <c r="CO10">
+        <v>2</v>
+      </c>
+      <c r="CP10">
+        <v>2</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:101" ht="30" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <v>2</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-      <c r="AA10">
-        <v>2</v>
-      </c>
-      <c r="AB10">
-        <v>2</v>
-      </c>
-      <c r="AC10">
-        <v>2</v>
-      </c>
-      <c r="AD10">
-        <v>2</v>
-      </c>
-      <c r="AE10">
-        <v>2</v>
-      </c>
-      <c r="AF10">
-        <v>2</v>
-      </c>
-      <c r="AG10">
-        <v>2</v>
-      </c>
-      <c r="AH10">
-        <v>2</v>
-      </c>
-      <c r="AI10">
-        <v>2</v>
-      </c>
-      <c r="AJ10">
-        <v>2</v>
-      </c>
-      <c r="AK10">
-        <v>2</v>
-      </c>
-      <c r="AL10">
-        <v>2</v>
-      </c>
-      <c r="AM10">
-        <v>2</v>
-      </c>
-      <c r="AN10">
-        <v>2</v>
-      </c>
-      <c r="AO10">
-        <v>2</v>
-      </c>
-      <c r="AP10">
-        <v>2</v>
-      </c>
-      <c r="AQ10">
-        <v>2</v>
-      </c>
-      <c r="AR10">
-        <v>2</v>
-      </c>
-      <c r="AS10">
-        <v>2</v>
-      </c>
-      <c r="AT10">
-        <v>2</v>
-      </c>
-      <c r="AU10">
-        <v>2</v>
-      </c>
-      <c r="AV10">
-        <v>2</v>
-      </c>
-      <c r="AW10">
-        <v>2</v>
-      </c>
-      <c r="AX10">
-        <v>2</v>
-      </c>
-      <c r="AY10">
-        <v>2</v>
-      </c>
-      <c r="AZ10">
-        <v>2</v>
-      </c>
-      <c r="BA10">
-        <v>2</v>
-      </c>
-      <c r="BB10">
-        <v>2</v>
-      </c>
-      <c r="BC10">
-        <v>2</v>
-      </c>
-      <c r="BD10">
-        <v>2</v>
-      </c>
-      <c r="BE10">
-        <v>2</v>
-      </c>
-      <c r="BF10">
-        <v>2</v>
-      </c>
-      <c r="BG10">
-        <v>2</v>
-      </c>
-      <c r="BH10">
-        <v>2</v>
-      </c>
-      <c r="BI10">
-        <v>2</v>
-      </c>
-      <c r="BJ10">
-        <v>2</v>
-      </c>
-      <c r="BK10">
-        <v>2</v>
-      </c>
-      <c r="BL10">
-        <v>2</v>
-      </c>
-      <c r="BM10">
-        <v>2</v>
-      </c>
-      <c r="BN10">
-        <v>2</v>
-      </c>
-      <c r="BO10">
-        <v>2</v>
-      </c>
-      <c r="BP10">
-        <v>2</v>
-      </c>
-      <c r="BQ10">
-        <v>2</v>
-      </c>
-      <c r="BR10">
-        <v>2</v>
-      </c>
-      <c r="BS10">
-        <v>2</v>
-      </c>
-      <c r="BT10">
-        <v>2</v>
-      </c>
-      <c r="BU10">
-        <v>2</v>
-      </c>
-      <c r="BV10">
-        <v>2</v>
-      </c>
-      <c r="BW10">
-        <v>2</v>
-      </c>
-      <c r="BX10">
-        <v>2</v>
-      </c>
-      <c r="BY10">
-        <v>2</v>
-      </c>
-      <c r="BZ10">
-        <v>2</v>
-      </c>
-      <c r="CA10">
-        <v>2</v>
-      </c>
-      <c r="CB10">
-        <v>2</v>
-      </c>
-      <c r="CC10">
-        <v>2</v>
-      </c>
-      <c r="CD10">
-        <v>2</v>
-      </c>
-      <c r="CE10">
-        <v>2</v>
-      </c>
-      <c r="CF10">
-        <v>2</v>
-      </c>
-      <c r="CG10">
-        <v>2</v>
-      </c>
-      <c r="CH10">
-        <v>2</v>
-      </c>
-      <c r="CI10">
-        <v>2</v>
-      </c>
-      <c r="CJ10">
-        <v>2</v>
-      </c>
-      <c r="CK10">
-        <v>2</v>
-      </c>
-      <c r="CL10">
-        <v>2</v>
-      </c>
-      <c r="CM10">
-        <v>2</v>
-      </c>
-      <c r="CN10">
-        <v>2</v>
-      </c>
-      <c r="CO10">
-        <v>2</v>
-      </c>
-      <c r="CP10">
-        <v>2</v>
-      </c>
-      <c r="CQ10">
-        <v>0</v>
-      </c>
-      <c r="CR10">
-        <v>0</v>
-      </c>
-      <c r="CS10">
-        <v>0</v>
-      </c>
-      <c r="CT10">
-        <v>0</v>
-      </c>
-      <c r="CU10">
-        <v>0</v>
-      </c>
-      <c r="CV10">
-        <v>0</v>
-      </c>
-      <c r="CW10">
+    <row r="11" spans="1:102" ht="30" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>2</v>
+      </c>
+      <c r="AI11">
+        <v>2</v>
+      </c>
+      <c r="AJ11">
+        <v>2</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+      <c r="AO11">
+        <v>2</v>
+      </c>
+      <c r="AP11">
+        <v>2</v>
+      </c>
+      <c r="AQ11">
+        <v>2</v>
+      </c>
+      <c r="AR11">
+        <v>2</v>
+      </c>
+      <c r="AS11">
+        <v>2</v>
+      </c>
+      <c r="AT11">
+        <v>2</v>
+      </c>
+      <c r="AU11">
+        <v>2</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>2</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
+        <v>2</v>
+      </c>
+      <c r="AZ11">
+        <v>2</v>
+      </c>
+      <c r="BA11">
+        <v>2</v>
+      </c>
+      <c r="BB11">
+        <v>2</v>
+      </c>
+      <c r="BC11">
+        <v>2</v>
+      </c>
+      <c r="BD11">
+        <v>2</v>
+      </c>
+      <c r="BE11">
+        <v>2</v>
+      </c>
+      <c r="BF11">
+        <v>2</v>
+      </c>
+      <c r="BG11">
+        <v>2</v>
+      </c>
+      <c r="BH11">
+        <v>2</v>
+      </c>
+      <c r="BI11">
+        <v>2</v>
+      </c>
+      <c r="BJ11">
+        <v>2</v>
+      </c>
+      <c r="BK11">
+        <v>2</v>
+      </c>
+      <c r="BL11">
+        <v>2</v>
+      </c>
+      <c r="BM11">
+        <v>2</v>
+      </c>
+      <c r="BN11">
+        <v>2</v>
+      </c>
+      <c r="BO11">
+        <v>2</v>
+      </c>
+      <c r="BP11">
+        <v>2</v>
+      </c>
+      <c r="BQ11">
+        <v>2</v>
+      </c>
+      <c r="BR11">
+        <v>2</v>
+      </c>
+      <c r="BS11">
+        <v>2</v>
+      </c>
+      <c r="BT11">
+        <v>2</v>
+      </c>
+      <c r="BU11">
+        <v>2</v>
+      </c>
+      <c r="BV11">
+        <v>2</v>
+      </c>
+      <c r="BW11">
+        <v>2</v>
+      </c>
+      <c r="BX11">
+        <v>2</v>
+      </c>
+      <c r="BY11">
+        <v>2</v>
+      </c>
+      <c r="BZ11">
+        <v>2</v>
+      </c>
+      <c r="CA11">
+        <v>2</v>
+      </c>
+      <c r="CB11">
+        <v>2</v>
+      </c>
+      <c r="CC11">
+        <v>2</v>
+      </c>
+      <c r="CD11">
+        <v>2</v>
+      </c>
+      <c r="CE11">
+        <v>2</v>
+      </c>
+      <c r="CF11">
+        <v>2</v>
+      </c>
+      <c r="CG11">
+        <v>2</v>
+      </c>
+      <c r="CH11">
+        <v>2</v>
+      </c>
+      <c r="CI11">
+        <v>2</v>
+      </c>
+      <c r="CJ11">
+        <v>2</v>
+      </c>
+      <c r="CK11">
+        <v>2</v>
+      </c>
+      <c r="CL11">
+        <v>2</v>
+      </c>
+      <c r="CM11">
+        <v>2</v>
+      </c>
+      <c r="CN11">
+        <v>2</v>
+      </c>
+      <c r="CO11">
+        <v>2</v>
+      </c>
+      <c r="CP11">
+        <v>2</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:101" ht="30" customHeight="1">
-      <c r="A11" s="1">
+    <row r="12" spans="1:102" ht="30" customHeight="1">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>2</v>
-      </c>
-      <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11">
-        <v>2</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11">
-        <v>2</v>
-      </c>
-      <c r="AB11">
-        <v>2</v>
-      </c>
-      <c r="AC11">
-        <v>2</v>
-      </c>
-      <c r="AD11">
-        <v>2</v>
-      </c>
-      <c r="AE11">
-        <v>2</v>
-      </c>
-      <c r="AF11">
-        <v>2</v>
-      </c>
-      <c r="AG11">
-        <v>2</v>
-      </c>
-      <c r="AH11">
-        <v>2</v>
-      </c>
-      <c r="AI11">
-        <v>2</v>
-      </c>
-      <c r="AJ11">
-        <v>2</v>
-      </c>
-      <c r="AK11">
-        <v>2</v>
-      </c>
-      <c r="AL11">
-        <v>2</v>
-      </c>
-      <c r="AM11">
-        <v>2</v>
-      </c>
-      <c r="AN11">
-        <v>2</v>
-      </c>
-      <c r="AO11">
-        <v>2</v>
-      </c>
-      <c r="AP11">
-        <v>2</v>
-      </c>
-      <c r="AQ11">
-        <v>2</v>
-      </c>
-      <c r="AR11">
-        <v>2</v>
-      </c>
-      <c r="AS11">
-        <v>2</v>
-      </c>
-      <c r="AT11">
-        <v>2</v>
-      </c>
-      <c r="AU11">
-        <v>2</v>
-      </c>
-      <c r="AV11">
-        <v>2</v>
-      </c>
-      <c r="AW11">
-        <v>2</v>
-      </c>
-      <c r="AX11">
-        <v>2</v>
-      </c>
-      <c r="AY11">
-        <v>2</v>
-      </c>
-      <c r="AZ11">
-        <v>2</v>
-      </c>
-      <c r="BA11">
-        <v>2</v>
-      </c>
-      <c r="BB11">
-        <v>2</v>
-      </c>
-      <c r="BC11">
-        <v>2</v>
-      </c>
-      <c r="BD11">
-        <v>2</v>
-      </c>
-      <c r="BE11">
-        <v>2</v>
-      </c>
-      <c r="BF11">
-        <v>2</v>
-      </c>
-      <c r="BG11">
-        <v>2</v>
-      </c>
-      <c r="BH11">
-        <v>2</v>
-      </c>
-      <c r="BI11">
-        <v>2</v>
-      </c>
-      <c r="BJ11">
-        <v>2</v>
-      </c>
-      <c r="BK11">
-        <v>2</v>
-      </c>
-      <c r="BL11">
-        <v>2</v>
-      </c>
-      <c r="BM11">
-        <v>2</v>
-      </c>
-      <c r="BN11">
-        <v>2</v>
-      </c>
-      <c r="BO11">
-        <v>2</v>
-      </c>
-      <c r="BP11">
-        <v>2</v>
-      </c>
-      <c r="BQ11">
-        <v>2</v>
-      </c>
-      <c r="BR11">
-        <v>2</v>
-      </c>
-      <c r="BS11">
-        <v>2</v>
-      </c>
-      <c r="BT11">
-        <v>2</v>
-      </c>
-      <c r="BU11">
-        <v>2</v>
-      </c>
-      <c r="BV11">
-        <v>2</v>
-      </c>
-      <c r="BW11">
-        <v>2</v>
-      </c>
-      <c r="BX11">
-        <v>2</v>
-      </c>
-      <c r="BY11">
-        <v>2</v>
-      </c>
-      <c r="BZ11">
-        <v>2</v>
-      </c>
-      <c r="CA11">
-        <v>2</v>
-      </c>
-      <c r="CB11">
-        <v>2</v>
-      </c>
-      <c r="CC11">
-        <v>2</v>
-      </c>
-      <c r="CD11">
-        <v>2</v>
-      </c>
-      <c r="CE11">
-        <v>2</v>
-      </c>
-      <c r="CF11">
-        <v>2</v>
-      </c>
-      <c r="CG11">
-        <v>2</v>
-      </c>
-      <c r="CH11">
-        <v>2</v>
-      </c>
-      <c r="CI11">
-        <v>2</v>
-      </c>
-      <c r="CJ11">
-        <v>2</v>
-      </c>
-      <c r="CK11">
-        <v>2</v>
-      </c>
-      <c r="CL11">
-        <v>2</v>
-      </c>
-      <c r="CM11">
-        <v>2</v>
-      </c>
-      <c r="CN11">
-        <v>2</v>
-      </c>
-      <c r="CO11">
-        <v>2</v>
-      </c>
-      <c r="CP11">
-        <v>2</v>
-      </c>
-      <c r="CQ11">
-        <v>0</v>
-      </c>
-      <c r="CR11">
-        <v>0</v>
-      </c>
-      <c r="CS11">
-        <v>0</v>
-      </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
-      </c>
-      <c r="CW11">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+      <c r="AH12">
+        <v>4</v>
+      </c>
+      <c r="AI12">
+        <v>4</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AK12">
+        <v>4</v>
+      </c>
+      <c r="AL12">
+        <v>4</v>
+      </c>
+      <c r="AM12">
+        <v>4</v>
+      </c>
+      <c r="AN12">
+        <v>4</v>
+      </c>
+      <c r="AO12">
+        <v>4</v>
+      </c>
+      <c r="AP12">
+        <v>4</v>
+      </c>
+      <c r="AQ12">
+        <v>4</v>
+      </c>
+      <c r="AR12">
+        <v>4</v>
+      </c>
+      <c r="AS12">
+        <v>4</v>
+      </c>
+      <c r="AT12">
+        <v>4</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
+      <c r="AW12">
+        <v>4</v>
+      </c>
+      <c r="AX12">
+        <v>4</v>
+      </c>
+      <c r="AY12">
+        <v>4</v>
+      </c>
+      <c r="AZ12">
+        <v>4</v>
+      </c>
+      <c r="BA12">
+        <v>4</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>4</v>
+      </c>
+      <c r="BD12">
+        <v>4</v>
+      </c>
+      <c r="BE12">
+        <v>4</v>
+      </c>
+      <c r="BF12">
+        <v>4</v>
+      </c>
+      <c r="BG12">
+        <v>4</v>
+      </c>
+      <c r="BH12">
+        <v>4</v>
+      </c>
+      <c r="BI12">
+        <v>4</v>
+      </c>
+      <c r="BJ12">
+        <v>4</v>
+      </c>
+      <c r="BK12">
+        <v>4</v>
+      </c>
+      <c r="BL12">
+        <v>4</v>
+      </c>
+      <c r="BM12">
+        <v>4</v>
+      </c>
+      <c r="BN12">
+        <v>4</v>
+      </c>
+      <c r="BO12">
+        <v>4</v>
+      </c>
+      <c r="BP12">
+        <v>4</v>
+      </c>
+      <c r="BQ12">
+        <v>4</v>
+      </c>
+      <c r="BR12">
+        <v>4</v>
+      </c>
+      <c r="BS12">
+        <v>4</v>
+      </c>
+      <c r="BT12">
+        <v>4</v>
+      </c>
+      <c r="BU12">
+        <v>4</v>
+      </c>
+      <c r="BV12">
+        <v>4</v>
+      </c>
+      <c r="BW12">
+        <v>4</v>
+      </c>
+      <c r="BX12">
+        <v>4</v>
+      </c>
+      <c r="BY12">
+        <v>4</v>
+      </c>
+      <c r="BZ12">
+        <v>4</v>
+      </c>
+      <c r="CA12">
+        <v>4</v>
+      </c>
+      <c r="CB12">
+        <v>4</v>
+      </c>
+      <c r="CC12">
+        <v>4</v>
+      </c>
+      <c r="CD12">
+        <v>4</v>
+      </c>
+      <c r="CE12">
+        <v>4</v>
+      </c>
+      <c r="CF12">
+        <v>4</v>
+      </c>
+      <c r="CG12">
+        <v>4</v>
+      </c>
+      <c r="CH12">
+        <v>4</v>
+      </c>
+      <c r="CI12">
+        <v>4</v>
+      </c>
+      <c r="CJ12">
+        <v>4</v>
+      </c>
+      <c r="CK12">
+        <v>4</v>
+      </c>
+      <c r="CL12">
+        <v>4</v>
+      </c>
+      <c r="CM12">
+        <v>4</v>
+      </c>
+      <c r="CN12">
+        <v>4</v>
+      </c>
+      <c r="CO12">
+        <v>2</v>
+      </c>
+      <c r="CP12">
+        <v>2</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:101" ht="30" customHeight="1">
-      <c r="A12" s="1">
+    <row r="13" spans="1:102" ht="30" customHeight="1">
+      <c r="A13" s="1">
         <v>11</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>4</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="S12">
-        <v>4</v>
-      </c>
-      <c r="T12">
-        <v>4</v>
-      </c>
-      <c r="U12">
-        <v>4</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
-      </c>
-      <c r="W12">
-        <v>4</v>
-      </c>
-      <c r="X12">
-        <v>4</v>
-      </c>
-      <c r="Y12">
-        <v>4</v>
-      </c>
-      <c r="Z12">
-        <v>4</v>
-      </c>
-      <c r="AA12">
-        <v>4</v>
-      </c>
-      <c r="AB12">
-        <v>4</v>
-      </c>
-      <c r="AC12">
-        <v>4</v>
-      </c>
-      <c r="AD12">
-        <v>4</v>
-      </c>
-      <c r="AE12">
-        <v>4</v>
-      </c>
-      <c r="AF12">
-        <v>4</v>
-      </c>
-      <c r="AG12">
-        <v>4</v>
-      </c>
-      <c r="AH12">
-        <v>4</v>
-      </c>
-      <c r="AI12">
-        <v>4</v>
-      </c>
-      <c r="AJ12">
-        <v>4</v>
-      </c>
-      <c r="AK12">
-        <v>4</v>
-      </c>
-      <c r="AL12">
-        <v>4</v>
-      </c>
-      <c r="AM12">
-        <v>4</v>
-      </c>
-      <c r="AN12">
-        <v>4</v>
-      </c>
-      <c r="AO12">
-        <v>4</v>
-      </c>
-      <c r="AP12">
-        <v>4</v>
-      </c>
-      <c r="AQ12">
-        <v>4</v>
-      </c>
-      <c r="AR12">
-        <v>4</v>
-      </c>
-      <c r="AS12">
-        <v>4</v>
-      </c>
-      <c r="AT12">
-        <v>4</v>
-      </c>
-      <c r="AU12">
-        <v>4</v>
-      </c>
-      <c r="AV12">
-        <v>4</v>
-      </c>
-      <c r="AW12">
-        <v>4</v>
-      </c>
-      <c r="AX12">
-        <v>4</v>
-      </c>
-      <c r="AY12">
-        <v>4</v>
-      </c>
-      <c r="AZ12">
-        <v>4</v>
-      </c>
-      <c r="BA12">
-        <v>4</v>
-      </c>
-      <c r="BB12">
-        <v>4</v>
-      </c>
-      <c r="BC12">
-        <v>4</v>
-      </c>
-      <c r="BD12">
-        <v>4</v>
-      </c>
-      <c r="BE12">
-        <v>4</v>
-      </c>
-      <c r="BF12">
-        <v>4</v>
-      </c>
-      <c r="BG12">
-        <v>4</v>
-      </c>
-      <c r="BH12">
-        <v>4</v>
-      </c>
-      <c r="BI12">
-        <v>4</v>
-      </c>
-      <c r="BJ12">
-        <v>4</v>
-      </c>
-      <c r="BK12">
-        <v>4</v>
-      </c>
-      <c r="BL12">
-        <v>4</v>
-      </c>
-      <c r="BM12">
-        <v>4</v>
-      </c>
-      <c r="BN12">
-        <v>4</v>
-      </c>
-      <c r="BO12">
-        <v>4</v>
-      </c>
-      <c r="BP12">
-        <v>4</v>
-      </c>
-      <c r="BQ12">
-        <v>4</v>
-      </c>
-      <c r="BR12">
-        <v>4</v>
-      </c>
-      <c r="BS12">
-        <v>4</v>
-      </c>
-      <c r="BT12">
-        <v>4</v>
-      </c>
-      <c r="BU12">
-        <v>4</v>
-      </c>
-      <c r="BV12">
-        <v>4</v>
-      </c>
-      <c r="BW12">
-        <v>4</v>
-      </c>
-      <c r="BX12">
-        <v>4</v>
-      </c>
-      <c r="BY12">
-        <v>4</v>
-      </c>
-      <c r="BZ12">
-        <v>4</v>
-      </c>
-      <c r="CA12">
-        <v>4</v>
-      </c>
-      <c r="CB12">
-        <v>4</v>
-      </c>
-      <c r="CC12">
-        <v>4</v>
-      </c>
-      <c r="CD12">
-        <v>4</v>
-      </c>
-      <c r="CE12">
-        <v>4</v>
-      </c>
-      <c r="CF12">
-        <v>4</v>
-      </c>
-      <c r="CG12">
-        <v>4</v>
-      </c>
-      <c r="CH12">
-        <v>4</v>
-      </c>
-      <c r="CI12">
-        <v>4</v>
-      </c>
-      <c r="CJ12">
-        <v>4</v>
-      </c>
-      <c r="CK12">
-        <v>4</v>
-      </c>
-      <c r="CL12">
-        <v>4</v>
-      </c>
-      <c r="CM12">
-        <v>4</v>
-      </c>
-      <c r="CN12">
-        <v>4</v>
-      </c>
-      <c r="CO12">
-        <v>2</v>
-      </c>
-      <c r="CP12">
-        <v>2</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
-      </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CW12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:101" ht="30" customHeight="1">
-      <c r="A13" s="1">
-        <v>12</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -4782,10 +4782,10 @@
         <v>17</v>
       </c>
       <c r="AN13">
+        <v>4</v>
+      </c>
+      <c r="AO13">
         <v>11</v>
-      </c>
-      <c r="AO13">
-        <v>5</v>
       </c>
       <c r="AP13">
         <v>5</v>
@@ -4968,9 +4968,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:101" ht="30" customHeight="1">
+    <row r="14" spans="1:102" ht="30" customHeight="1">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -5087,10 +5087,10 @@
         <v>5</v>
       </c>
       <c r="AN14">
+        <v>4</v>
+      </c>
+      <c r="AO14">
         <v>10</v>
-      </c>
-      <c r="AO14">
-        <v>5</v>
       </c>
       <c r="AP14">
         <v>4</v>
@@ -5273,9 +5273,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:101" ht="30" customHeight="1">
+    <row r="15" spans="1:102" ht="30" customHeight="1">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -5578,9 +5578,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:101" ht="30" customHeight="1">
+    <row r="16" spans="1:102" ht="30" customHeight="1">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="17" spans="1:101" ht="30" customHeight="1">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="18" spans="1:101" ht="30" customHeight="1">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="19" spans="1:101" ht="30" customHeight="1">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="20" spans="1:101" ht="30" customHeight="1">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="21" spans="1:101" ht="30" customHeight="1">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="22" spans="1:101" ht="30" customHeight="1">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="23" spans="1:101" ht="30" customHeight="1">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -8020,7 +8020,7 @@
     </row>
     <row r="24" spans="1:101" ht="30" customHeight="1">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="25" spans="1:101" ht="30" customHeight="1">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="26" spans="1:101" ht="30" customHeight="1">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="27" spans="1:101" ht="30" customHeight="1">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="28" spans="1:101" ht="30" customHeight="1">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="29" spans="1:101" ht="30" customHeight="1">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="30" spans="1:101" ht="30" customHeight="1">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="31" spans="1:101" ht="30" customHeight="1">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -10460,7 +10460,7 @@
     </row>
     <row r="32" spans="1:101" ht="30" customHeight="1">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="33" spans="1:101" ht="30" customHeight="1">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -11070,7 +11070,7 @@
     </row>
     <row r="34" spans="1:101" ht="30" customHeight="1">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>9</v>
@@ -11375,7 +11375,7 @@
     </row>
     <row r="35" spans="1:101" ht="30" customHeight="1">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -11680,7 +11680,7 @@
     </row>
     <row r="36" spans="1:101" ht="30" customHeight="1">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="37" spans="1:101" ht="30" customHeight="1">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -12290,7 +12290,7 @@
     </row>
     <row r="38" spans="1:101" ht="30" customHeight="1">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -12595,7 +12595,7 @@
     </row>
     <row r="39" spans="1:101" ht="30" customHeight="1">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="40" spans="1:101" ht="30" customHeight="1">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -13205,7 +13205,7 @@
     </row>
     <row r="41" spans="1:101" ht="30" customHeight="1">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -13510,7 +13510,7 @@
     </row>
     <row r="42" spans="1:101" ht="30" customHeight="1">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>9</v>
@@ -13815,7 +13815,7 @@
     </row>
     <row r="43" spans="1:101" ht="30" customHeight="1">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>9</v>
@@ -14120,7 +14120,7 @@
     </row>
     <row r="44" spans="1:101" ht="30" customHeight="1">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -14425,7 +14425,7 @@
     </row>
     <row r="45" spans="1:101" ht="30" customHeight="1">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -14730,7 +14730,7 @@
     </row>
     <row r="46" spans="1:101" ht="30" customHeight="1">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -15035,7 +15035,7 @@
     </row>
     <row r="47" spans="1:101" ht="30" customHeight="1">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -15340,7 +15340,7 @@
     </row>
     <row r="48" spans="1:101" ht="30" customHeight="1">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -15645,7 +15645,7 @@
     </row>
     <row r="49" spans="1:101" ht="30" customHeight="1">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -15950,7 +15950,7 @@
     </row>
     <row r="50" spans="1:101" ht="30" customHeight="1">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="51" spans="1:101" ht="30" customHeight="1">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -16560,7 +16560,7 @@
     </row>
     <row r="52" spans="1:101" ht="30" customHeight="1">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -16865,7 +16865,7 @@
     </row>
     <row r="53" spans="1:101" ht="30" customHeight="1">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -17170,7 +17170,7 @@
     </row>
     <row r="54" spans="1:101" ht="30" customHeight="1">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -17475,7 +17475,7 @@
     </row>
     <row r="55" spans="1:101" ht="30" customHeight="1">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -17780,7 +17780,7 @@
     </row>
     <row r="56" spans="1:101" ht="30" customHeight="1">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>9</v>
@@ -18085,7 +18085,7 @@
     </row>
     <row r="57" spans="1:101" ht="30" customHeight="1">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>9</v>
@@ -18390,7 +18390,7 @@
     </row>
     <row r="58" spans="1:101" ht="30" customHeight="1">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="59" spans="1:101" ht="30" customHeight="1">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -19000,7 +19000,7 @@
     </row>
     <row r="60" spans="1:101" ht="30" customHeight="1">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>9</v>
@@ -19305,7 +19305,7 @@
     </row>
     <row r="61" spans="1:101" ht="30" customHeight="1">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>9</v>
@@ -19610,7 +19610,7 @@
     </row>
     <row r="62" spans="1:101" ht="30" customHeight="1">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -19915,7 +19915,7 @@
     </row>
     <row r="63" spans="1:101" ht="30" customHeight="1">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>9</v>
@@ -20220,7 +20220,7 @@
     </row>
     <row r="64" spans="1:101" ht="30" customHeight="1">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>9</v>
@@ -20525,7 +20525,7 @@
     </row>
     <row r="65" spans="1:101" ht="30" customHeight="1">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>9</v>
@@ -20830,7 +20830,7 @@
     </row>
     <row r="66" spans="1:101" ht="30" customHeight="1">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>9</v>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="67" spans="1:101" ht="30" customHeight="1">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>9</v>
@@ -21440,7 +21440,7 @@
     </row>
     <row r="68" spans="1:101" ht="30" customHeight="1">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -21745,7 +21745,7 @@
     </row>
     <row r="69" spans="1:101" ht="30" customHeight="1">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>9</v>
@@ -22050,7 +22050,7 @@
     </row>
     <row r="70" spans="1:101" ht="30" customHeight="1">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>9</v>
@@ -22355,7 +22355,7 @@
     </row>
     <row r="71" spans="1:101" ht="30" customHeight="1">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -22660,7 +22660,7 @@
     </row>
     <row r="72" spans="1:101" ht="30" customHeight="1">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -22965,7 +22965,7 @@
     </row>
     <row r="73" spans="1:101" ht="30" customHeight="1">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>9</v>
@@ -23270,7 +23270,7 @@
     </row>
     <row r="74" spans="1:101" ht="30" customHeight="1">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>9</v>
@@ -23575,7 +23575,7 @@
     </row>
     <row r="75" spans="1:101" ht="30" customHeight="1">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -23880,7 +23880,7 @@
     </row>
     <row r="76" spans="1:101" ht="30" customHeight="1">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -24185,7 +24185,7 @@
     </row>
     <row r="77" spans="1:101" ht="30" customHeight="1">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>9</v>
@@ -24490,7 +24490,7 @@
     </row>
     <row r="78" spans="1:101" ht="30" customHeight="1">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>9</v>
@@ -24795,7 +24795,7 @@
     </row>
     <row r="79" spans="1:101" ht="30" customHeight="1">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -25100,312 +25100,312 @@
     </row>
     <row r="80" spans="1:101" ht="30" customHeight="1">
       <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80">
+        <v>4</v>
+      </c>
+      <c r="P80">
+        <v>4</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>4</v>
+      </c>
+      <c r="T80">
+        <v>4</v>
+      </c>
+      <c r="U80">
+        <v>4</v>
+      </c>
+      <c r="V80">
+        <v>4</v>
+      </c>
+      <c r="W80">
+        <v>4</v>
+      </c>
+      <c r="X80">
+        <v>4</v>
+      </c>
+      <c r="Y80">
+        <v>4</v>
+      </c>
+      <c r="Z80">
+        <v>4</v>
+      </c>
+      <c r="AA80">
+        <v>4</v>
+      </c>
+      <c r="AB80">
+        <v>4</v>
+      </c>
+      <c r="AC80">
+        <v>4</v>
+      </c>
+      <c r="AD80">
+        <v>4</v>
+      </c>
+      <c r="AE80">
+        <v>4</v>
+      </c>
+      <c r="AF80">
+        <v>4</v>
+      </c>
+      <c r="AG80">
+        <v>4</v>
+      </c>
+      <c r="AH80">
+        <v>4</v>
+      </c>
+      <c r="AI80">
+        <v>4</v>
+      </c>
+      <c r="AJ80">
+        <v>4</v>
+      </c>
+      <c r="AK80">
+        <v>4</v>
+      </c>
+      <c r="AL80">
+        <v>4</v>
+      </c>
+      <c r="AM80">
+        <v>4</v>
+      </c>
+      <c r="AN80">
+        <v>4</v>
+      </c>
+      <c r="AO80">
+        <v>4</v>
+      </c>
+      <c r="AP80">
+        <v>4</v>
+      </c>
+      <c r="AQ80">
+        <v>4</v>
+      </c>
+      <c r="AR80">
+        <v>4</v>
+      </c>
+      <c r="AS80">
+        <v>4</v>
+      </c>
+      <c r="AT80">
+        <v>4</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>4</v>
+      </c>
+      <c r="AZ80">
+        <v>4</v>
+      </c>
+      <c r="BA80">
+        <v>4</v>
+      </c>
+      <c r="BB80">
+        <v>4</v>
+      </c>
+      <c r="BC80">
+        <v>4</v>
+      </c>
+      <c r="BD80">
+        <v>4</v>
+      </c>
+      <c r="BE80">
+        <v>4</v>
+      </c>
+      <c r="BF80">
+        <v>4</v>
+      </c>
+      <c r="BG80">
+        <v>4</v>
+      </c>
+      <c r="BH80">
+        <v>4</v>
+      </c>
+      <c r="BI80">
+        <v>4</v>
+      </c>
+      <c r="BJ80">
+        <v>4</v>
+      </c>
+      <c r="BK80">
+        <v>4</v>
+      </c>
+      <c r="BL80">
+        <v>4</v>
+      </c>
+      <c r="BM80">
+        <v>4</v>
+      </c>
+      <c r="BN80">
+        <v>4</v>
+      </c>
+      <c r="BO80">
+        <v>4</v>
+      </c>
+      <c r="BP80">
+        <v>4</v>
+      </c>
+      <c r="BQ80">
+        <v>4</v>
+      </c>
+      <c r="BR80">
+        <v>4</v>
+      </c>
+      <c r="BS80">
+        <v>4</v>
+      </c>
+      <c r="BT80">
+        <v>4</v>
+      </c>
+      <c r="BU80">
+        <v>4</v>
+      </c>
+      <c r="BV80">
+        <v>4</v>
+      </c>
+      <c r="BW80">
+        <v>4</v>
+      </c>
+      <c r="BX80">
+        <v>4</v>
+      </c>
+      <c r="BY80">
+        <v>4</v>
+      </c>
+      <c r="BZ80">
+        <v>4</v>
+      </c>
+      <c r="CA80">
+        <v>4</v>
+      </c>
+      <c r="CB80">
+        <v>4</v>
+      </c>
+      <c r="CC80">
+        <v>4</v>
+      </c>
+      <c r="CD80">
+        <v>4</v>
+      </c>
+      <c r="CE80">
+        <v>4</v>
+      </c>
+      <c r="CF80">
+        <v>4</v>
+      </c>
+      <c r="CG80">
+        <v>4</v>
+      </c>
+      <c r="CH80">
+        <v>4</v>
+      </c>
+      <c r="CI80">
+        <v>4</v>
+      </c>
+      <c r="CJ80">
+        <v>4</v>
+      </c>
+      <c r="CK80">
+        <v>4</v>
+      </c>
+      <c r="CL80">
+        <v>4</v>
+      </c>
+      <c r="CM80">
+        <v>4</v>
+      </c>
+      <c r="CN80">
+        <v>4</v>
+      </c>
+      <c r="CO80">
+        <v>2</v>
+      </c>
+      <c r="CP80">
+        <v>2</v>
+      </c>
+      <c r="CQ80">
+        <v>0</v>
+      </c>
+      <c r="CR80">
+        <v>0</v>
+      </c>
+      <c r="CS80">
+        <v>0</v>
+      </c>
+      <c r="CT80">
+        <v>0</v>
+      </c>
+      <c r="CU80">
+        <v>0</v>
+      </c>
+      <c r="CV80">
+        <v>0</v>
+      </c>
+      <c r="CW80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:101" ht="49.2" customHeight="1">
+      <c r="A81" s="1">
         <v>79</v>
-      </c>
-      <c r="B80">
-        <v>9</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>2</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80">
-        <v>2</v>
-      </c>
-      <c r="O80">
-        <v>4</v>
-      </c>
-      <c r="P80">
-        <v>4</v>
-      </c>
-      <c r="Q80">
-        <v>4</v>
-      </c>
-      <c r="R80">
-        <v>4</v>
-      </c>
-      <c r="S80">
-        <v>4</v>
-      </c>
-      <c r="T80">
-        <v>4</v>
-      </c>
-      <c r="U80">
-        <v>4</v>
-      </c>
-      <c r="V80">
-        <v>4</v>
-      </c>
-      <c r="W80">
-        <v>4</v>
-      </c>
-      <c r="X80">
-        <v>4</v>
-      </c>
-      <c r="Y80">
-        <v>4</v>
-      </c>
-      <c r="Z80">
-        <v>4</v>
-      </c>
-      <c r="AA80">
-        <v>4</v>
-      </c>
-      <c r="AB80">
-        <v>4</v>
-      </c>
-      <c r="AC80">
-        <v>4</v>
-      </c>
-      <c r="AD80">
-        <v>4</v>
-      </c>
-      <c r="AE80">
-        <v>4</v>
-      </c>
-      <c r="AF80">
-        <v>4</v>
-      </c>
-      <c r="AG80">
-        <v>4</v>
-      </c>
-      <c r="AH80">
-        <v>4</v>
-      </c>
-      <c r="AI80">
-        <v>4</v>
-      </c>
-      <c r="AJ80">
-        <v>4</v>
-      </c>
-      <c r="AK80">
-        <v>4</v>
-      </c>
-      <c r="AL80">
-        <v>4</v>
-      </c>
-      <c r="AM80">
-        <v>4</v>
-      </c>
-      <c r="AN80">
-        <v>4</v>
-      </c>
-      <c r="AO80">
-        <v>4</v>
-      </c>
-      <c r="AP80">
-        <v>4</v>
-      </c>
-      <c r="AQ80">
-        <v>4</v>
-      </c>
-      <c r="AR80">
-        <v>4</v>
-      </c>
-      <c r="AS80">
-        <v>4</v>
-      </c>
-      <c r="AT80">
-        <v>4</v>
-      </c>
-      <c r="AU80">
-        <v>4</v>
-      </c>
-      <c r="AV80">
-        <v>4</v>
-      </c>
-      <c r="AW80">
-        <v>4</v>
-      </c>
-      <c r="AX80">
-        <v>4</v>
-      </c>
-      <c r="AY80">
-        <v>4</v>
-      </c>
-      <c r="AZ80">
-        <v>4</v>
-      </c>
-      <c r="BA80">
-        <v>4</v>
-      </c>
-      <c r="BB80">
-        <v>4</v>
-      </c>
-      <c r="BC80">
-        <v>4</v>
-      </c>
-      <c r="BD80">
-        <v>4</v>
-      </c>
-      <c r="BE80">
-        <v>4</v>
-      </c>
-      <c r="BF80">
-        <v>4</v>
-      </c>
-      <c r="BG80">
-        <v>4</v>
-      </c>
-      <c r="BH80">
-        <v>4</v>
-      </c>
-      <c r="BI80">
-        <v>4</v>
-      </c>
-      <c r="BJ80">
-        <v>4</v>
-      </c>
-      <c r="BK80">
-        <v>4</v>
-      </c>
-      <c r="BL80">
-        <v>4</v>
-      </c>
-      <c r="BM80">
-        <v>4</v>
-      </c>
-      <c r="BN80">
-        <v>4</v>
-      </c>
-      <c r="BO80">
-        <v>4</v>
-      </c>
-      <c r="BP80">
-        <v>4</v>
-      </c>
-      <c r="BQ80">
-        <v>4</v>
-      </c>
-      <c r="BR80">
-        <v>4</v>
-      </c>
-      <c r="BS80">
-        <v>4</v>
-      </c>
-      <c r="BT80">
-        <v>4</v>
-      </c>
-      <c r="BU80">
-        <v>4</v>
-      </c>
-      <c r="BV80">
-        <v>4</v>
-      </c>
-      <c r="BW80">
-        <v>4</v>
-      </c>
-      <c r="BX80">
-        <v>4</v>
-      </c>
-      <c r="BY80">
-        <v>4</v>
-      </c>
-      <c r="BZ80">
-        <v>4</v>
-      </c>
-      <c r="CA80">
-        <v>4</v>
-      </c>
-      <c r="CB80">
-        <v>4</v>
-      </c>
-      <c r="CC80">
-        <v>4</v>
-      </c>
-      <c r="CD80">
-        <v>4</v>
-      </c>
-      <c r="CE80">
-        <v>4</v>
-      </c>
-      <c r="CF80">
-        <v>4</v>
-      </c>
-      <c r="CG80">
-        <v>4</v>
-      </c>
-      <c r="CH80">
-        <v>4</v>
-      </c>
-      <c r="CI80">
-        <v>4</v>
-      </c>
-      <c r="CJ80">
-        <v>4</v>
-      </c>
-      <c r="CK80">
-        <v>4</v>
-      </c>
-      <c r="CL80">
-        <v>4</v>
-      </c>
-      <c r="CM80">
-        <v>4</v>
-      </c>
-      <c r="CN80">
-        <v>4</v>
-      </c>
-      <c r="CO80">
-        <v>2</v>
-      </c>
-      <c r="CP80">
-        <v>2</v>
-      </c>
-      <c r="CQ80">
-        <v>0</v>
-      </c>
-      <c r="CR80">
-        <v>0</v>
-      </c>
-      <c r="CS80">
-        <v>0</v>
-      </c>
-      <c r="CT80">
-        <v>0</v>
-      </c>
-      <c r="CU80">
-        <v>0</v>
-      </c>
-      <c r="CV80">
-        <v>0</v>
-      </c>
-      <c r="CW80">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:101" ht="30" customHeight="1">
-      <c r="A81" s="1">
-        <v>80</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -25710,349 +25710,354 @@
     </row>
     <row r="82" spans="1:101" ht="30" customHeight="1">
       <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>9</v>
+      </c>
+      <c r="I82">
+        <v>9</v>
+      </c>
+      <c r="J82">
+        <v>9</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
+      </c>
+      <c r="L82">
+        <v>9</v>
+      </c>
+      <c r="M82">
+        <v>9</v>
+      </c>
+      <c r="N82">
+        <v>9</v>
+      </c>
+      <c r="O82">
+        <v>9</v>
+      </c>
+      <c r="P82">
+        <v>9</v>
+      </c>
+      <c r="Q82">
+        <v>9</v>
+      </c>
+      <c r="R82">
+        <v>9</v>
+      </c>
+      <c r="S82">
+        <v>9</v>
+      </c>
+      <c r="T82">
+        <v>9</v>
+      </c>
+      <c r="U82">
+        <v>9</v>
+      </c>
+      <c r="V82">
+        <v>9</v>
+      </c>
+      <c r="W82">
+        <v>9</v>
+      </c>
+      <c r="X82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>9</v>
+      </c>
+      <c r="Z82">
+        <v>9</v>
+      </c>
+      <c r="AA82">
+        <v>9</v>
+      </c>
+      <c r="AB82">
+        <v>9</v>
+      </c>
+      <c r="AC82">
+        <v>9</v>
+      </c>
+      <c r="AD82">
+        <v>9</v>
+      </c>
+      <c r="AE82">
+        <v>9</v>
+      </c>
+      <c r="AF82">
+        <v>9</v>
+      </c>
+      <c r="AG82">
+        <v>9</v>
+      </c>
+      <c r="AH82">
+        <v>9</v>
+      </c>
+      <c r="AI82">
+        <v>9</v>
+      </c>
+      <c r="AJ82">
+        <v>9</v>
+      </c>
+      <c r="AK82">
+        <v>9</v>
+      </c>
+      <c r="AL82">
+        <v>9</v>
+      </c>
+      <c r="AM82">
+        <v>9</v>
+      </c>
+      <c r="AN82">
+        <v>9</v>
+      </c>
+      <c r="AO82">
+        <v>9</v>
+      </c>
+      <c r="AP82">
+        <v>9</v>
+      </c>
+      <c r="AQ82">
+        <v>9</v>
+      </c>
+      <c r="AR82">
+        <v>9</v>
+      </c>
+      <c r="AS82">
+        <v>9</v>
+      </c>
+      <c r="AT82">
+        <v>9</v>
+      </c>
+      <c r="AU82">
+        <v>9</v>
+      </c>
+      <c r="AV82">
+        <v>9</v>
+      </c>
+      <c r="AW82">
+        <v>9</v>
+      </c>
+      <c r="AX82">
+        <v>9</v>
+      </c>
+      <c r="AY82">
+        <v>9</v>
+      </c>
+      <c r="AZ82">
+        <v>9</v>
+      </c>
+      <c r="BA82">
+        <v>9</v>
+      </c>
+      <c r="BB82">
+        <v>9</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>9</v>
+      </c>
+      <c r="BE82">
+        <v>9</v>
+      </c>
+      <c r="BF82">
+        <v>9</v>
+      </c>
+      <c r="BG82">
+        <v>9</v>
+      </c>
+      <c r="BH82">
+        <v>9</v>
+      </c>
+      <c r="BI82">
+        <v>9</v>
+      </c>
+      <c r="BJ82">
+        <v>9</v>
+      </c>
+      <c r="BK82">
+        <v>9</v>
+      </c>
+      <c r="BL82">
+        <v>9</v>
+      </c>
+      <c r="BM82">
+        <v>9</v>
+      </c>
+      <c r="BN82">
+        <v>9</v>
+      </c>
+      <c r="BO82">
+        <v>9</v>
+      </c>
+      <c r="BP82">
+        <v>9</v>
+      </c>
+      <c r="BQ82">
+        <v>9</v>
+      </c>
+      <c r="BR82">
+        <v>9</v>
+      </c>
+      <c r="BS82">
+        <v>9</v>
+      </c>
+      <c r="BT82">
+        <v>9</v>
+      </c>
+      <c r="BU82">
+        <v>9</v>
+      </c>
+      <c r="BV82">
+        <v>9</v>
+      </c>
+      <c r="BW82">
+        <v>9</v>
+      </c>
+      <c r="BX82">
+        <v>9</v>
+      </c>
+      <c r="BY82">
+        <v>9</v>
+      </c>
+      <c r="BZ82">
+        <v>9</v>
+      </c>
+      <c r="CA82">
+        <v>9</v>
+      </c>
+      <c r="CB82">
+        <v>9</v>
+      </c>
+      <c r="CC82">
+        <v>9</v>
+      </c>
+      <c r="CD82">
+        <v>9</v>
+      </c>
+      <c r="CE82">
+        <v>9</v>
+      </c>
+      <c r="CF82">
+        <v>9</v>
+      </c>
+      <c r="CG82">
+        <v>9</v>
+      </c>
+      <c r="CH82">
+        <v>9</v>
+      </c>
+      <c r="CI82">
+        <v>9</v>
+      </c>
+      <c r="CJ82">
+        <v>9</v>
+      </c>
+      <c r="CK82">
+        <v>9</v>
+      </c>
+      <c r="CL82">
+        <v>9</v>
+      </c>
+      <c r="CM82">
+        <v>9</v>
+      </c>
+      <c r="CN82">
+        <v>9</v>
+      </c>
+      <c r="CO82">
+        <v>9</v>
+      </c>
+      <c r="CP82">
+        <v>9</v>
+      </c>
+      <c r="CQ82">
+        <v>9</v>
+      </c>
+      <c r="CR82">
+        <v>9</v>
+      </c>
+      <c r="CS82">
+        <v>9</v>
+      </c>
+      <c r="CT82">
+        <v>9</v>
+      </c>
+      <c r="CU82">
+        <v>9</v>
+      </c>
+      <c r="CV82">
+        <v>9</v>
+      </c>
+      <c r="CW82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:101" ht="30" customHeight="1">
+      <c r="A83" s="1">
         <v>81</v>
-      </c>
-      <c r="B82">
-        <v>9</v>
-      </c>
-      <c r="C82">
-        <v>9</v>
-      </c>
-      <c r="D82">
-        <v>9</v>
-      </c>
-      <c r="E82">
-        <v>9</v>
-      </c>
-      <c r="F82">
-        <v>9</v>
-      </c>
-      <c r="G82">
-        <v>9</v>
-      </c>
-      <c r="H82">
-        <v>9</v>
-      </c>
-      <c r="I82">
-        <v>9</v>
-      </c>
-      <c r="J82">
-        <v>9</v>
-      </c>
-      <c r="K82">
-        <v>9</v>
-      </c>
-      <c r="L82">
-        <v>9</v>
-      </c>
-      <c r="M82">
-        <v>9</v>
-      </c>
-      <c r="N82">
-        <v>9</v>
-      </c>
-      <c r="O82">
-        <v>9</v>
-      </c>
-      <c r="P82">
-        <v>9</v>
-      </c>
-      <c r="Q82">
-        <v>9</v>
-      </c>
-      <c r="R82">
-        <v>9</v>
-      </c>
-      <c r="S82">
-        <v>9</v>
-      </c>
-      <c r="T82">
-        <v>9</v>
-      </c>
-      <c r="U82">
-        <v>9</v>
-      </c>
-      <c r="V82">
-        <v>9</v>
-      </c>
-      <c r="W82">
-        <v>9</v>
-      </c>
-      <c r="X82">
-        <v>9</v>
-      </c>
-      <c r="Y82">
-        <v>9</v>
-      </c>
-      <c r="Z82">
-        <v>9</v>
-      </c>
-      <c r="AA82">
-        <v>9</v>
-      </c>
-      <c r="AB82">
-        <v>9</v>
-      </c>
-      <c r="AC82">
-        <v>9</v>
-      </c>
-      <c r="AD82">
-        <v>9</v>
-      </c>
-      <c r="AE82">
-        <v>9</v>
-      </c>
-      <c r="AF82">
-        <v>9</v>
-      </c>
-      <c r="AG82">
-        <v>9</v>
-      </c>
-      <c r="AH82">
-        <v>9</v>
-      </c>
-      <c r="AI82">
-        <v>9</v>
-      </c>
-      <c r="AJ82">
-        <v>9</v>
-      </c>
-      <c r="AK82">
-        <v>9</v>
-      </c>
-      <c r="AL82">
-        <v>9</v>
-      </c>
-      <c r="AM82">
-        <v>9</v>
-      </c>
-      <c r="AN82">
-        <v>9</v>
-      </c>
-      <c r="AO82">
-        <v>9</v>
-      </c>
-      <c r="AP82">
-        <v>9</v>
-      </c>
-      <c r="AQ82">
-        <v>9</v>
-      </c>
-      <c r="AR82">
-        <v>9</v>
-      </c>
-      <c r="AS82">
-        <v>9</v>
-      </c>
-      <c r="AT82">
-        <v>9</v>
-      </c>
-      <c r="AU82">
-        <v>9</v>
-      </c>
-      <c r="AV82">
-        <v>9</v>
-      </c>
-      <c r="AW82">
-        <v>9</v>
-      </c>
-      <c r="AX82">
-        <v>9</v>
-      </c>
-      <c r="AY82">
-        <v>9</v>
-      </c>
-      <c r="AZ82">
-        <v>9</v>
-      </c>
-      <c r="BA82">
-        <v>9</v>
-      </c>
-      <c r="BB82">
-        <v>9</v>
-      </c>
-      <c r="BC82">
-        <v>9</v>
-      </c>
-      <c r="BD82">
-        <v>9</v>
-      </c>
-      <c r="BE82">
-        <v>9</v>
-      </c>
-      <c r="BF82">
-        <v>9</v>
-      </c>
-      <c r="BG82">
-        <v>9</v>
-      </c>
-      <c r="BH82">
-        <v>9</v>
-      </c>
-      <c r="BI82">
-        <v>9</v>
-      </c>
-      <c r="BJ82">
-        <v>9</v>
-      </c>
-      <c r="BK82">
-        <v>9</v>
-      </c>
-      <c r="BL82">
-        <v>9</v>
-      </c>
-      <c r="BM82">
-        <v>9</v>
-      </c>
-      <c r="BN82">
-        <v>9</v>
-      </c>
-      <c r="BO82">
-        <v>9</v>
-      </c>
-      <c r="BP82">
-        <v>9</v>
-      </c>
-      <c r="BQ82">
-        <v>9</v>
-      </c>
-      <c r="BR82">
-        <v>9</v>
-      </c>
-      <c r="BS82">
-        <v>9</v>
-      </c>
-      <c r="BT82">
-        <v>9</v>
-      </c>
-      <c r="BU82">
-        <v>9</v>
-      </c>
-      <c r="BV82">
-        <v>9</v>
-      </c>
-      <c r="BW82">
-        <v>9</v>
-      </c>
-      <c r="BX82">
-        <v>9</v>
-      </c>
-      <c r="BY82">
-        <v>9</v>
-      </c>
-      <c r="BZ82">
-        <v>9</v>
-      </c>
-      <c r="CA82">
-        <v>9</v>
-      </c>
-      <c r="CB82">
-        <v>9</v>
-      </c>
-      <c r="CC82">
-        <v>9</v>
-      </c>
-      <c r="CD82">
-        <v>9</v>
-      </c>
-      <c r="CE82">
-        <v>9</v>
-      </c>
-      <c r="CF82">
-        <v>9</v>
-      </c>
-      <c r="CG82">
-        <v>9</v>
-      </c>
-      <c r="CH82">
-        <v>9</v>
-      </c>
-      <c r="CI82">
-        <v>9</v>
-      </c>
-      <c r="CJ82">
-        <v>9</v>
-      </c>
-      <c r="CK82">
-        <v>9</v>
-      </c>
-      <c r="CL82">
-        <v>9</v>
-      </c>
-      <c r="CM82">
-        <v>9</v>
-      </c>
-      <c r="CN82">
-        <v>9</v>
-      </c>
-      <c r="CO82">
-        <v>9</v>
-      </c>
-      <c r="CP82">
-        <v>9</v>
-      </c>
-      <c r="CQ82">
-        <v>9</v>
-      </c>
-      <c r="CR82">
-        <v>9</v>
-      </c>
-      <c r="CS82">
-        <v>9</v>
-      </c>
-      <c r="CT82">
-        <v>9</v>
-      </c>
-      <c r="CU82">
-        <v>9</v>
-      </c>
-      <c r="CV82">
-        <v>9</v>
-      </c>
-      <c r="CW82">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:CW82">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>9</formula>
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
+      <formula>29</formula>
+      <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
+      <formula>19</formula>
+      <formula>20</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
       <formula>10</formula>
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
-      <formula>19</formula>
-      <formula>20</formula>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>10</formula>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
-      <formula>29</formula>
-      <formula>31</formula>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>35</formula>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
